--- a/Data/PCR/EXP9_10b_19a_30a_125aCT.xlsx
+++ b/Data/PCR/EXP9_10b_19a_30a_125aCT.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="193">
   <si>
     <t>Experiment: Exp9_10b_19a_30a_125a  Selected Filter: SYBR Green I / HRM Dye (465-510)</t>
   </si>
@@ -1644,11 +1644,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="4439008"/>
-        <c:axId val="4439568"/>
+        <c:axId val="372248320"/>
+        <c:axId val="372248880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="4439008"/>
+        <c:axId val="372248320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4439568"/>
+        <c:crossAx val="372248880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1699,7 +1699,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4439568"/>
+        <c:axId val="372248880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4439008"/>
+        <c:crossAx val="372248320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4386,15 +4386,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>177</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -4432,8 +4432,24 @@
         <f>-((D8-E8)-(D29-E29))</f>
         <v>-6.462499999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:N4" si="0">B3-B24</f>
+        <v>-4.43</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>-1.7399999999999984</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>0.96000000000000085</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-5.009999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -4457,8 +4473,24 @@
         <f>-((D9-E9)-(D30-E30))</f>
         <v>-2.9850731530911401</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-4.9800000000000004</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-7.5600000000000023</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>-6.4400000000000013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -4471,8 +4503,16 @@
       <c r="D5">
         <v>32.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f>B5-B26</f>
+        <v>-1.5900000000000034</v>
+      </c>
+      <c r="M5">
+        <f>D5-D26</f>
+        <v>8.7700000000000031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -4488,8 +4528,20 @@
       <c r="E6">
         <v>15.57</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f>B6-B27</f>
+        <v>-0.85000000000000142</v>
+      </c>
+      <c r="L6">
+        <f>C6-C27</f>
+        <v>-20.53</v>
+      </c>
+      <c r="N6">
+        <f>E6-E27</f>
+        <v>-14.89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -4506,8 +4558,24 @@
         <v>21.95</v>
       </c>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f>B7-B28</f>
+        <v>-0.67000000000000171</v>
+      </c>
+      <c r="L7">
+        <f>C7-C28</f>
+        <v>8.4599999999999973</v>
+      </c>
+      <c r="M7">
+        <f>D7-D28</f>
+        <v>-11.41</v>
+      </c>
+      <c r="N7">
+        <f>E7-E28</f>
+        <v>7.3999999999999986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>182</v>
       </c>
@@ -4516,19 +4584,19 @@
         <v>29.136000000000003</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C8:E8" si="1">AVERAGE(C3:C7)</f>
         <v>21.655999999999999</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.381999999999998</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.577500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>183</v>
       </c>
@@ -4537,19 +4605,19 @@
         <v>2.0715048877567255</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:E9" si="1">STDEV(C3:C7)/2</f>
+        <f t="shared" ref="C9:E9" si="2">STDEV(C3:C7)/2</f>
         <v>5.5713784201039482</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4749681816136517</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9624278118358007</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -4559,8 +4627,16 @@
       <c r="E10">
         <v>10.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f>D10-D24</f>
+        <v>1.1799999999999997</v>
+      </c>
+      <c r="N10">
+        <f>E10-E24</f>
+        <v>-7.0399999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -4573,8 +4649,20 @@
       <c r="D11">
         <v>20.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f>B11-B25</f>
+        <v>3.1300000000000026</v>
+      </c>
+      <c r="L11">
+        <f>C11-C25</f>
+        <v>-3.7199999999999989</v>
+      </c>
+      <c r="M11">
+        <f>D11-D25</f>
+        <v>-3.2099999999999973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>184</v>
       </c>
@@ -4587,8 +4675,16 @@
       <c r="D12">
         <v>26.77</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f>B12-B26</f>
+        <v>3.2799999999999976</v>
+      </c>
+      <c r="M12">
+        <f>D12-D26</f>
+        <v>3.1900000000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -4609,8 +4705,16 @@
         <f>-((D15-E15)-(D29-E29))</f>
         <v>-0.99399999999999622</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f>B13-B27</f>
+        <v>-1.2199999999999989</v>
+      </c>
+      <c r="N13">
+        <f>E13-E27</f>
+        <v>-1.7300000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -4631,8 +4735,20 @@
         <f>-((D16-E16)-(D30-E30))</f>
         <v>-0.5129596211723868</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>C14-C28</f>
+        <v>3.870000000000001</v>
+      </c>
+      <c r="M14">
+        <f>D14-D28</f>
+        <v>-18.11</v>
+      </c>
+      <c r="N14">
+        <f>E14-E28</f>
+        <v>2.0299999999999976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>182</v>
       </c>
@@ -4641,19 +4757,19 @@
         <v>31.956666666666667</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" ref="C15:E15" si="2">AVERAGE(C10:C14)</f>
+        <f t="shared" ref="C15:E15" si="3">AVERAGE(C10:C14)</f>
         <v>21.763333333333335</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.945999999999998</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.61</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>185</v>
       </c>
@@ -4662,11 +4778,11 @@
         <v>0.56005208091152914</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:D16" si="3">STDEV(C10:C14)/2</f>
+        <f t="shared" ref="C16:D16" si="4">STDEV(C10:C14)/2</f>
         <v>4.7440866700908098</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.6770123272035979</v>
       </c>
       <c r="E16" s="2">
@@ -4674,7 +4790,7 @@
         <v>4.6365854893445002</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -4687,8 +4803,20 @@
       <c r="E17">
         <v>13.72</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f>B17-B24</f>
+        <v>-12.560000000000002</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:N19" si="5">D17-D24</f>
+        <v>-0.96000000000000085</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>-3.8399999999999981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -4704,8 +4832,24 @@
       <c r="E18">
         <v>12.88</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f>B18-B25</f>
+        <v>0.95000000000000284</v>
+      </c>
+      <c r="L18">
+        <f>C18-C25</f>
+        <v>-0.28999999999999915</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>8.84</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>-9.7999999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -4721,8 +4865,20 @@
       <c r="E19">
         <v>37.840000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f>B19-B26</f>
+        <v>1.2199999999999989</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>5.0500000000000007</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>186</v>
       </c>
@@ -4738,8 +4894,20 @@
       <c r="E20">
         <v>21.98</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>B20-B27</f>
+        <v>3.0000000000001137E-2</v>
+      </c>
+      <c r="L20">
+        <f>C20-C27</f>
+        <v>-14.580000000000002</v>
+      </c>
+      <c r="N20">
+        <f>E20-E27</f>
+        <v>-8.48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>186</v>
       </c>
@@ -4760,8 +4928,20 @@
         <f>-((D22-E22)-(D29-E29))</f>
         <v>-4.1219999999999963</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>C21-C28</f>
+        <v>3.4499999999999993</v>
+      </c>
+      <c r="M21">
+        <f>D21-D28</f>
+        <v>-13.52</v>
+      </c>
+      <c r="N21">
+        <f>E21-E28</f>
+        <v>-2.0300000000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>182</v>
       </c>
@@ -4770,15 +4950,15 @@
         <v>28.2575</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:E22" si="4">AVERAGE(C17:C21)</f>
+        <f t="shared" ref="C22:E22" si="6">AVERAGE(C17:C21)</f>
         <v>20.895</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25.251999999999999</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>19.788</v>
       </c>
       <c r="G22">
@@ -4790,7 +4970,7 @@
         <v>-8.665543375641116E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>183</v>
       </c>
@@ -4799,19 +4979,19 @@
         <v>2.88560616104601</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" ref="C23:E23" si="5">STDEV(C17:C21)/2</f>
+        <f t="shared" ref="C23:E23" si="7">STDEV(C17:C21)/2</f>
         <v>4.5010304375776</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0227065686235561</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.408583918180434</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>187</v>
       </c>
@@ -4827,8 +5007,11 @@
       <c r="E24">
         <v>17.559999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>187</v>
       </c>
@@ -4844,8 +5027,24 @@
       <c r="E25">
         <v>22.68</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>B3-31.64</f>
+        <v>-3.3599999999999994</v>
+      </c>
+      <c r="J25">
+        <f>C3-29.3175</f>
+        <v>2.3825000000000003</v>
+      </c>
+      <c r="K25">
+        <f>D3-25.36</f>
+        <v>-1.379999999999999</v>
+      </c>
+      <c r="L25">
+        <f>E3-24.018</f>
+        <v>-11.468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>187</v>
       </c>
@@ -4858,8 +5057,24 @@
       <c r="E26">
         <v>34.840000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" ref="I26:I29" si="8">B4-31.64</f>
+        <v>-6.9000000000000021</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J29" si="9">C4-29.3175</f>
+        <v>-8.7375000000000007</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:K29" si="10">D4-25.36</f>
+        <v>-0.57000000000000028</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L29" si="11">E4-24.018</f>
+        <v>-7.7780000000000022</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>187</v>
       </c>
@@ -4872,8 +5087,20 @@
       <c r="E27">
         <v>30.46</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="8"/>
+        <v>-5.8100000000000023</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="9"/>
+        <v>-16.9375</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="10"/>
+        <v>6.990000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>187</v>
       </c>
@@ -4889,8 +5116,24 @@
       <c r="E28">
         <v>14.55</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>1.0499999999999972</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>-19.927499999999998</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="10"/>
+        <v>-3.870000000000001</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="11"/>
+        <v>-8.4480000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>182</v>
       </c>
@@ -4899,19 +5142,35 @@
         <v>31.639999999999997</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ref="C29:E29" si="6">AVERAGE(C24:C28)</f>
+        <f t="shared" ref="C29:E29" si="12">AVERAGE(C24:C28)</f>
         <v>29.317499999999999</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.36</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>24.017999999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="9"/>
+        <v>4.9124999999999979</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="10"/>
+        <v>-6.0599999999999987</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="11"/>
+        <v>-2.0680000000000014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>183</v>
       </c>
@@ -4920,29 +5179,191 @@
         <v>1.5062079869659435</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:E30" si="7">STDEV(C24:C28)/2</f>
+        <f t="shared" ref="C30:E30" si="13">STDEV(C24:C28)/2</f>
         <v>1.6157886361361331</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.7976697879940737</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4.2702025713073626</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f>D10-25.36</f>
+        <v>-1.1600000000000001</v>
+      </c>
+      <c r="L32">
+        <f>E10-24.018</f>
+        <v>-13.498000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" ref="I33:I36" si="14">B11-31.64</f>
+        <v>1.2100000000000009</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J36" si="15">C11-29.3175</f>
+        <v>-4.8974999999999973</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K36" si="16">D11-25.36</f>
+        <v>-4.4399999999999977</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:L36" si="17">E11-24.018</f>
+        <v>-24.018000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="14"/>
+        <v>-0.94000000000000128</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="15"/>
+        <v>-18.087499999999999</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="16"/>
+        <v>1.4100000000000001</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="17"/>
+        <v>-24.018000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="14"/>
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="16"/>
+        <v>-5.120000000000001</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="17"/>
+        <v>4.7119999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="15"/>
+        <v>0.32250000000000156</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="16"/>
+        <v>-12.76</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="17"/>
+        <v>-7.4380000000000024</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
+      <c r="I38">
+        <f>B17-31.64</f>
+        <v>-11.490000000000002</v>
+      </c>
+      <c r="K38">
+        <f>D17-25.36</f>
+        <v>-3.3000000000000007</v>
+      </c>
+      <c r="L38">
+        <f>E17-24.018</f>
+        <v>-10.298</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" ref="I39:I42" si="18">B18-31.64</f>
+        <v>-0.96999999999999886</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39:J42" si="19">C18-29.3175</f>
+        <v>-1.4674999999999976</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K42" si="20">D18-25.36</f>
+        <v>7.6099999999999994</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L39:L42" si="21">E18-24.018</f>
+        <v>-11.138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="18"/>
+        <v>-3</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="19"/>
+        <v>-18.147500000000001</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="20"/>
+        <v>3.2699999999999996</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="21"/>
+        <v>13.822000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f t="shared" si="18"/>
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="19"/>
+        <v>-13.977499999999999</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="20"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="21"/>
+        <v>-2.0380000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="19"/>
+        <v>-9.7500000000000142E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="20"/>
+        <v>-8.1699999999999982</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="21"/>
+        <v>-11.498000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
